--- a/slides/data/journal_1877.xlsx
+++ b/slides/data/journal_1877.xlsx
@@ -5,11 +5,165 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$AG$366</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A177">
+      <text>
+        <t xml:space="preserve">June 26 mentions Rockland
+	-Natalie Rodriguez Dickens</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C177">
+      <text>
+        <t xml:space="preserve">"after a freight" not "after freight"
+	-Natalie Rodriguez Dickens</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A171">
+      <text>
+        <t xml:space="preserve">June 18 "sighted Boon Island heading west"
+	-Natalie Rodriguez Dickens</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A146">
+      <text>
+        <t xml:space="preserve">May 21 "The wind South West got underway in the morning and arrived home at 11am"
+	-Natalie Rodriguez Dickens</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A140">
+      <text>
+        <t xml:space="preserve">May 17 and 18 mentions of Portland
+	-Natalie Rodriguez Dickens
+May 20 “The wind baffling and moderate South Easterly. Anchored at Bass Harbor at Dark”
+	-Natalie Rodriguez Dickens</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D80">
+      <text>
+        <t xml:space="preserve">March 14- "Went to Cranberry Isles to see Capt. Thomas Bunker"
+	-Natalie Rodriguez Dickens</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D195">
+      <text>
+        <t xml:space="preserve">"Isles" not "IIsles"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D208">
+      <text>
+        <t xml:space="preserve">"Prospect Harbor" not "Prospect Harbot"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C262">
+      <text>
+        <t xml:space="preserve">"to work Mr. L. Crane's team" not "to work Mr. L. Cranes. team", and "Came home in Evening" not "Caine home in Evening"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C272">
+      <text>
+        <t xml:space="preserve">"Mr Cranes horse to see" not "Mr Cranes Thorse to see"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C197">
+      <text>
+        <t xml:space="preserve">"Rockland at 5 PM Hauled into the wharf" not "Rockland into the wharf"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C363">
+      <text>
+        <t xml:space="preserve">"South East" not "south cast", and "finished the" not "foushed the"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C317">
+      <text>
+        <t xml:space="preserve">"Mejsrs S. C." not "Mejsrs S Le"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C304">
+      <text>
+        <t xml:space="preserve">"took the stage" not "took the Gtage"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C300">
+      <text>
+        <t xml:space="preserve">"Went to Prospect" not "went to Prospect"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C285">
+      <text>
+        <t xml:space="preserve">"to see Frank" not "ro see Frank"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C274">
+      <text>
+        <t xml:space="preserve">"L.G. Cranes" not "L.G. Canes"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C240">
+      <text>
+        <t xml:space="preserve">"Lower Harbor" not "Lowe Harbor"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C235">
+      <text>
+        <t xml:space="preserve">"in the afternoon" not 'in ther afternoon", and "got a boat rode" not "got a boat socle"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C196">
+      <text>
+        <t xml:space="preserve">"under way" not "under waay"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C192">
+      <text>
+        <t xml:space="preserve">"offmure came back to East Lulling" not "offmure Lulling"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C187">
+      <text>
+        <t xml:space="preserve">"Calm all" not "Clam all", and "load of hardwood" not "load j hardwood"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C185">
+      <text>
+        <t xml:space="preserve">"back to Iron Bound" not "back Iron Bound'
+	-Morgan Urban</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C171">
+      <text>
+        <t xml:space="preserve">"at noon the wind" not "at noon in the wind"
+	-Morgan Urban</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5880,7 +6034,7 @@
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -5941,7 +6095,7 @@
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -6002,7 +6156,7 @@
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -6063,7 +6217,7 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
@@ -6124,7 +6278,7 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -6185,7 +6339,7 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
@@ -6248,7 +6402,7 @@
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
@@ -6309,7 +6463,7 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
@@ -6370,7 +6524,7 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="6" t="s">
         <v>56</v>
       </c>
@@ -6433,7 +6587,7 @@
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
@@ -6496,7 +6650,7 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -6559,7 +6713,7 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="6" t="s">
         <v>62</v>
       </c>
@@ -6620,7 +6774,7 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
@@ -6681,7 +6835,7 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
@@ -6742,7 +6896,7 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -6803,7 +6957,7 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
@@ -6864,7 +7018,7 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
@@ -6927,7 +7081,7 @@
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
@@ -6988,7 +7142,7 @@
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="6" t="s">
         <v>76</v>
       </c>
@@ -7049,7 +7203,7 @@
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -7110,7 +7264,7 @@
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="6" t="s">
         <v>80</v>
       </c>
@@ -7173,7 +7327,7 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="6" t="s">
         <v>82</v>
       </c>
@@ -7236,7 +7390,7 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="6" t="s">
         <v>84</v>
       </c>
@@ -7299,7 +7453,7 @@
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="6" t="s">
         <v>86</v>
       </c>
@@ -7360,7 +7514,7 @@
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="6" t="s">
         <v>88</v>
       </c>
@@ -7421,7 +7575,7 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="6" t="s">
         <v>90</v>
       </c>
@@ -7484,7 +7638,7 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="6" t="s">
         <v>92</v>
       </c>
@@ -7547,7 +7701,7 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="6" t="s">
         <v>94</v>
       </c>
@@ -7608,7 +7762,7 @@
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
@@ -7669,7 +7823,7 @@
       <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -7730,7 +7884,7 @@
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="6" t="s">
         <v>100</v>
       </c>
@@ -7793,7 +7947,7 @@
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="6" t="s">
         <v>102</v>
       </c>
@@ -7854,7 +8008,7 @@
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="6" t="s">
         <v>106</v>
       </c>
@@ -7917,7 +8071,7 @@
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="6" t="s">
         <v>108</v>
       </c>
@@ -7978,7 +8132,7 @@
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="6" t="s">
         <v>110</v>
       </c>
@@ -8041,7 +8195,7 @@
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="6" t="s">
         <v>112</v>
       </c>
@@ -8104,7 +8258,7 @@
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="6" t="s">
         <v>114</v>
       </c>
@@ -8165,7 +8319,7 @@
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="6" t="s">
         <v>116</v>
       </c>
@@ -8228,7 +8382,7 @@
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="6" t="s">
         <v>119</v>
       </c>
@@ -8289,7 +8443,7 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="6" t="s">
         <v>121</v>
       </c>
@@ -8350,7 +8504,7 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" hidden="1">
+    <row r="42">
       <c r="A42" s="6" t="s">
         <v>123</v>
       </c>
@@ -8411,7 +8565,7 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="6" t="s">
         <v>125</v>
       </c>
@@ -8472,7 +8626,7 @@
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" hidden="1">
+    <row r="44">
       <c r="A44" s="6" t="s">
         <v>127</v>
       </c>
@@ -8533,7 +8687,7 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" hidden="1">
+    <row r="45">
       <c r="A45" s="6" t="s">
         <v>129</v>
       </c>
@@ -8596,7 +8750,7 @@
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" hidden="1">
+    <row r="46">
       <c r="A46" s="6" t="s">
         <v>131</v>
       </c>
@@ -8657,7 +8811,7 @@
       <c r="AL46" s="5"/>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" hidden="1">
+    <row r="47">
       <c r="A47" s="6" t="s">
         <v>133</v>
       </c>
@@ -8720,7 +8874,7 @@
       <c r="AL47" s="5"/>
       <c r="AM47" s="5"/>
     </row>
-    <row r="48" hidden="1">
+    <row r="48">
       <c r="A48" s="6" t="s">
         <v>135</v>
       </c>
@@ -8781,7 +8935,7 @@
       <c r="AL48" s="5"/>
       <c r="AM48" s="5"/>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="6" t="s">
         <v>137</v>
       </c>
@@ -8844,7 +8998,7 @@
       <c r="AL49" s="5"/>
       <c r="AM49" s="5"/>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="6" t="s">
         <v>139</v>
       </c>
@@ -8905,7 +9059,7 @@
       <c r="AL50" s="5"/>
       <c r="AM50" s="5"/>
     </row>
-    <row r="51" hidden="1">
+    <row r="51">
       <c r="A51" s="6" t="s">
         <v>141</v>
       </c>
@@ -8966,7 +9120,7 @@
       <c r="AL51" s="5"/>
       <c r="AM51" s="5"/>
     </row>
-    <row r="52" hidden="1">
+    <row r="52">
       <c r="A52" s="6" t="s">
         <v>143</v>
       </c>
@@ -9027,7 +9181,7 @@
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
     </row>
-    <row r="53" hidden="1">
+    <row r="53">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
@@ -9088,7 +9242,7 @@
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
     </row>
-    <row r="54" hidden="1">
+    <row r="54">
       <c r="A54" s="6" t="s">
         <v>147</v>
       </c>
@@ -9151,7 +9305,7 @@
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="6" t="s">
         <v>149</v>
       </c>
@@ -9212,7 +9366,7 @@
       <c r="AL55" s="5"/>
       <c r="AM55" s="5"/>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="6" t="s">
         <v>151</v>
       </c>
@@ -9275,7 +9429,7 @@
       <c r="AL56" s="5"/>
       <c r="AM56" s="5"/>
     </row>
-    <row r="57" hidden="1">
+    <row r="57">
       <c r="A57" s="6" t="s">
         <v>153</v>
       </c>
@@ -9336,7 +9490,7 @@
       <c r="AL57" s="5"/>
       <c r="AM57" s="5"/>
     </row>
-    <row r="58" hidden="1">
+    <row r="58">
       <c r="A58" s="6" t="s">
         <v>155</v>
       </c>
@@ -9397,7 +9551,7 @@
       <c r="AL58" s="5"/>
       <c r="AM58" s="5"/>
     </row>
-    <row r="59" hidden="1">
+    <row r="59">
       <c r="A59" s="6" t="s">
         <v>157</v>
       </c>
@@ -9460,7 +9614,7 @@
       <c r="AL59" s="5"/>
       <c r="AM59" s="5"/>
     </row>
-    <row r="60" hidden="1">
+    <row r="60">
       <c r="A60" s="6" t="s">
         <v>159</v>
       </c>
@@ -9521,7 +9675,7 @@
       <c r="AL60" s="5"/>
       <c r="AM60" s="5"/>
     </row>
-    <row r="61" hidden="1">
+    <row r="61">
       <c r="A61" s="6" t="s">
         <v>161</v>
       </c>
@@ -9582,7 +9736,7 @@
       <c r="AL61" s="5"/>
       <c r="AM61" s="5"/>
     </row>
-    <row r="62" hidden="1">
+    <row r="62">
       <c r="A62" s="6" t="s">
         <v>164</v>
       </c>
@@ -9643,7 +9797,7 @@
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
     </row>
-    <row r="63" hidden="1">
+    <row r="63">
       <c r="A63" s="6" t="s">
         <v>166</v>
       </c>
@@ -9704,7 +9858,7 @@
       <c r="AL63" s="5"/>
       <c r="AM63" s="5"/>
     </row>
-    <row r="64" hidden="1">
+    <row r="64">
       <c r="A64" s="6" t="s">
         <v>168</v>
       </c>
@@ -9765,7 +9919,7 @@
       <c r="AL64" s="5"/>
       <c r="AM64" s="5"/>
     </row>
-    <row r="65" hidden="1">
+    <row r="65">
       <c r="A65" s="6" t="s">
         <v>170</v>
       </c>
@@ -9826,7 +9980,7 @@
       <c r="AL65" s="5"/>
       <c r="AM65" s="5"/>
     </row>
-    <row r="66" hidden="1">
+    <row r="66">
       <c r="A66" s="6" t="s">
         <v>172</v>
       </c>
@@ -9887,7 +10041,7 @@
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
     </row>
-    <row r="67" hidden="1">
+    <row r="67">
       <c r="A67" s="6" t="s">
         <v>174</v>
       </c>
@@ -9948,7 +10102,7 @@
       <c r="AL67" s="5"/>
       <c r="AM67" s="5"/>
     </row>
-    <row r="68" hidden="1">
+    <row r="68">
       <c r="A68" s="6" t="s">
         <v>176</v>
       </c>
@@ -10009,7 +10163,7 @@
       <c r="AL68" s="5"/>
       <c r="AM68" s="5"/>
     </row>
-    <row r="69" hidden="1">
+    <row r="69">
       <c r="A69" s="6" t="s">
         <v>178</v>
       </c>
@@ -10070,7 +10224,7 @@
       <c r="AL69" s="5"/>
       <c r="AM69" s="5"/>
     </row>
-    <row r="70" hidden="1">
+    <row r="70">
       <c r="A70" s="6" t="s">
         <v>180</v>
       </c>
@@ -10131,7 +10285,7 @@
       <c r="AL70" s="5"/>
       <c r="AM70" s="5"/>
     </row>
-    <row r="71" hidden="1">
+    <row r="71">
       <c r="A71" s="6" t="s">
         <v>182</v>
       </c>
@@ -10192,7 +10346,7 @@
       <c r="AL71" s="5"/>
       <c r="AM71" s="5"/>
     </row>
-    <row r="72" hidden="1">
+    <row r="72">
       <c r="A72" s="6" t="s">
         <v>184</v>
       </c>
@@ -10253,7 +10407,7 @@
       <c r="AL72" s="5"/>
       <c r="AM72" s="5"/>
     </row>
-    <row r="73" hidden="1">
+    <row r="73">
       <c r="A73" s="6" t="s">
         <v>186</v>
       </c>
@@ -10316,7 +10470,7 @@
       <c r="AL73" s="5"/>
       <c r="AM73" s="5"/>
     </row>
-    <row r="74" hidden="1">
+    <row r="74">
       <c r="A74" s="6" t="s">
         <v>188</v>
       </c>
@@ -10379,7 +10533,7 @@
       <c r="AL74" s="5"/>
       <c r="AM74" s="5"/>
     </row>
-    <row r="75" hidden="1">
+    <row r="75">
       <c r="A75" s="6" t="s">
         <v>190</v>
       </c>
@@ -10440,7 +10594,7 @@
       <c r="AL75" s="5"/>
       <c r="AM75" s="5"/>
     </row>
-    <row r="76" hidden="1">
+    <row r="76">
       <c r="A76" s="6" t="s">
         <v>192</v>
       </c>
@@ -10503,7 +10657,7 @@
       <c r="AL76" s="5"/>
       <c r="AM76" s="5"/>
     </row>
-    <row r="77" hidden="1">
+    <row r="77">
       <c r="A77" s="6" t="s">
         <v>194</v>
       </c>
@@ -10564,7 +10718,7 @@
       <c r="AL77" s="5"/>
       <c r="AM77" s="5"/>
     </row>
-    <row r="78" hidden="1">
+    <row r="78">
       <c r="A78" s="6" t="s">
         <v>196</v>
       </c>
@@ -10625,7 +10779,7 @@
       <c r="AL78" s="5"/>
       <c r="AM78" s="5"/>
     </row>
-    <row r="79" hidden="1">
+    <row r="79">
       <c r="A79" s="6" t="s">
         <v>198</v>
       </c>
@@ -10747,7 +10901,7 @@
       <c r="AL80" s="5"/>
       <c r="AM80" s="5"/>
     </row>
-    <row r="81" hidden="1">
+    <row r="81">
       <c r="A81" s="6" t="s">
         <v>203</v>
       </c>
@@ -10808,7 +10962,7 @@
       <c r="AL81" s="5"/>
       <c r="AM81" s="5"/>
     </row>
-    <row r="82" hidden="1">
+    <row r="82">
       <c r="A82" s="6" t="s">
         <v>205</v>
       </c>
@@ -10869,7 +11023,7 @@
       <c r="AL82" s="5"/>
       <c r="AM82" s="5"/>
     </row>
-    <row r="83" hidden="1">
+    <row r="83">
       <c r="A83" s="6" t="s">
         <v>207</v>
       </c>
@@ -10930,7 +11084,7 @@
       <c r="AL83" s="5"/>
       <c r="AM83" s="5"/>
     </row>
-    <row r="84" hidden="1">
+    <row r="84">
       <c r="A84" s="6" t="s">
         <v>209</v>
       </c>
@@ -10993,7 +11147,7 @@
       <c r="AL84" s="5"/>
       <c r="AM84" s="5"/>
     </row>
-    <row r="85" hidden="1">
+    <row r="85">
       <c r="A85" s="6" t="s">
         <v>211</v>
       </c>
@@ -11054,7 +11208,7 @@
       <c r="AL85" s="5"/>
       <c r="AM85" s="5"/>
     </row>
-    <row r="86" hidden="1">
+    <row r="86">
       <c r="A86" s="6" t="s">
         <v>213</v>
       </c>
@@ -11117,7 +11271,7 @@
       <c r="AL86" s="5"/>
       <c r="AM86" s="5"/>
     </row>
-    <row r="87" hidden="1">
+    <row r="87">
       <c r="A87" s="6" t="s">
         <v>215</v>
       </c>
@@ -11178,7 +11332,7 @@
       <c r="AL87" s="5"/>
       <c r="AM87" s="5"/>
     </row>
-    <row r="88" hidden="1">
+    <row r="88">
       <c r="A88" s="6" t="s">
         <v>217</v>
       </c>
@@ -11239,7 +11393,7 @@
       <c r="AL88" s="5"/>
       <c r="AM88" s="5"/>
     </row>
-    <row r="89" hidden="1">
+    <row r="89">
       <c r="A89" s="6" t="s">
         <v>219</v>
       </c>
@@ -11302,7 +11456,7 @@
       <c r="AL89" s="5"/>
       <c r="AM89" s="5"/>
     </row>
-    <row r="90" hidden="1">
+    <row r="90">
       <c r="A90" s="6" t="s">
         <v>221</v>
       </c>
@@ -11363,7 +11517,7 @@
       <c r="AL90" s="5"/>
       <c r="AM90" s="5"/>
     </row>
-    <row r="91" hidden="1">
+    <row r="91">
       <c r="A91" s="6" t="s">
         <v>224</v>
       </c>
@@ -11424,7 +11578,7 @@
       <c r="AL91" s="5"/>
       <c r="AM91" s="5"/>
     </row>
-    <row r="92" hidden="1">
+    <row r="92">
       <c r="A92" s="6" t="s">
         <v>226</v>
       </c>
@@ -11548,7 +11702,7 @@
       <c r="AL93" s="5"/>
       <c r="AM93" s="5"/>
     </row>
-    <row r="94" hidden="1">
+    <row r="94">
       <c r="A94" s="6" t="s">
         <v>232</v>
       </c>
@@ -11609,7 +11763,7 @@
       <c r="AL94" s="5"/>
       <c r="AM94" s="5"/>
     </row>
-    <row r="95" hidden="1">
+    <row r="95">
       <c r="A95" s="6" t="s">
         <v>234</v>
       </c>
@@ -11670,7 +11824,7 @@
       <c r="AL95" s="5"/>
       <c r="AM95" s="5"/>
     </row>
-    <row r="96" hidden="1">
+    <row r="96">
       <c r="A96" s="6" t="s">
         <v>236</v>
       </c>
@@ -11731,7 +11885,7 @@
       <c r="AL96" s="5"/>
       <c r="AM96" s="5"/>
     </row>
-    <row r="97" hidden="1">
+    <row r="97">
       <c r="A97" s="6" t="s">
         <v>238</v>
       </c>
@@ -11792,7 +11946,7 @@
       <c r="AL97" s="5"/>
       <c r="AM97" s="5"/>
     </row>
-    <row r="98" hidden="1">
+    <row r="98">
       <c r="A98" s="6" t="s">
         <v>240</v>
       </c>
@@ -11853,7 +12007,7 @@
       <c r="AL98" s="5"/>
       <c r="AM98" s="5"/>
     </row>
-    <row r="99" hidden="1">
+    <row r="99">
       <c r="A99" s="6" t="s">
         <v>242</v>
       </c>
@@ -11914,7 +12068,7 @@
       <c r="AL99" s="5"/>
       <c r="AM99" s="5"/>
     </row>
-    <row r="100" hidden="1">
+    <row r="100">
       <c r="A100" s="6" t="s">
         <v>244</v>
       </c>
@@ -11977,7 +12131,7 @@
       <c r="AL100" s="5"/>
       <c r="AM100" s="5"/>
     </row>
-    <row r="101" hidden="1">
+    <row r="101">
       <c r="A101" s="6" t="s">
         <v>246</v>
       </c>
@@ -12038,7 +12192,7 @@
       <c r="AL101" s="5"/>
       <c r="AM101" s="5"/>
     </row>
-    <row r="102" hidden="1">
+    <row r="102">
       <c r="A102" s="6" t="s">
         <v>248</v>
       </c>
@@ -12099,7 +12253,7 @@
       <c r="AL102" s="5"/>
       <c r="AM102" s="5"/>
     </row>
-    <row r="103" hidden="1">
+    <row r="103">
       <c r="A103" s="6" t="s">
         <v>250</v>
       </c>
@@ -12160,7 +12314,7 @@
       <c r="AL103" s="5"/>
       <c r="AM103" s="5"/>
     </row>
-    <row r="104" hidden="1">
+    <row r="104">
       <c r="A104" s="6" t="s">
         <v>252</v>
       </c>
@@ -12223,7 +12377,7 @@
       <c r="AL104" s="5"/>
       <c r="AM104" s="5"/>
     </row>
-    <row r="105" hidden="1">
+    <row r="105">
       <c r="A105" s="6" t="s">
         <v>254</v>
       </c>
@@ -12349,7 +12503,7 @@
       <c r="AL106" s="5"/>
       <c r="AM106" s="5"/>
     </row>
-    <row r="107" hidden="1">
+    <row r="107">
       <c r="A107" s="6" t="s">
         <v>259</v>
       </c>
@@ -12410,7 +12564,7 @@
       <c r="AL107" s="5"/>
       <c r="AM107" s="5"/>
     </row>
-    <row r="108" hidden="1">
+    <row r="108">
       <c r="A108" s="6" t="s">
         <v>261</v>
       </c>
@@ -12473,7 +12627,7 @@
       <c r="AL108" s="5"/>
       <c r="AM108" s="5"/>
     </row>
-    <row r="109" hidden="1">
+    <row r="109">
       <c r="A109" s="6" t="s">
         <v>264</v>
       </c>
@@ -12534,7 +12688,7 @@
       <c r="AL109" s="5"/>
       <c r="AM109" s="5"/>
     </row>
-    <row r="110" hidden="1">
+    <row r="110">
       <c r="A110" s="6" t="s">
         <v>266</v>
       </c>
@@ -12595,7 +12749,7 @@
       <c r="AL110" s="5"/>
       <c r="AM110" s="5"/>
     </row>
-    <row r="111" hidden="1">
+    <row r="111">
       <c r="A111" s="6" t="s">
         <v>268</v>
       </c>
@@ -12656,7 +12810,7 @@
       <c r="AL111" s="5"/>
       <c r="AM111" s="5"/>
     </row>
-    <row r="112" hidden="1">
+    <row r="112">
       <c r="A112" s="6" t="s">
         <v>270</v>
       </c>
@@ -12717,7 +12871,7 @@
       <c r="AL112" s="5"/>
       <c r="AM112" s="5"/>
     </row>
-    <row r="113" hidden="1">
+    <row r="113">
       <c r="A113" s="6" t="s">
         <v>272</v>
       </c>
@@ -12778,7 +12932,7 @@
       <c r="AL113" s="5"/>
       <c r="AM113" s="5"/>
     </row>
-    <row r="114" hidden="1">
+    <row r="114">
       <c r="A114" s="6" t="s">
         <v>274</v>
       </c>
@@ -12839,7 +12993,7 @@
       <c r="AL114" s="5"/>
       <c r="AM114" s="5"/>
     </row>
-    <row r="115" hidden="1">
+    <row r="115">
       <c r="A115" s="6" t="s">
         <v>276</v>
       </c>
@@ -12900,7 +13054,7 @@
       <c r="AL115" s="5"/>
       <c r="AM115" s="5"/>
     </row>
-    <row r="116" hidden="1">
+    <row r="116">
       <c r="A116" s="6" t="s">
         <v>278</v>
       </c>
@@ -12961,7 +13115,7 @@
       <c r="AL116" s="5"/>
       <c r="AM116" s="5"/>
     </row>
-    <row r="117" hidden="1">
+    <row r="117">
       <c r="A117" s="6" t="s">
         <v>280</v>
       </c>
@@ -13022,7 +13176,7 @@
       <c r="AL117" s="5"/>
       <c r="AM117" s="5"/>
     </row>
-    <row r="118" hidden="1">
+    <row r="118">
       <c r="A118" s="6" t="s">
         <v>282</v>
       </c>
@@ -13209,7 +13363,7 @@
       <c r="AL120" s="5"/>
       <c r="AM120" s="5"/>
     </row>
-    <row r="121" hidden="1">
+    <row r="121">
       <c r="A121" s="6" t="s">
         <v>290</v>
       </c>
@@ -13331,7 +13485,7 @@
       <c r="AL122" s="5"/>
       <c r="AM122" s="5"/>
     </row>
-    <row r="123" hidden="1">
+    <row r="123">
       <c r="A123" s="6" t="s">
         <v>296</v>
       </c>
@@ -13392,7 +13546,7 @@
       <c r="AL123" s="5"/>
       <c r="AM123" s="5"/>
     </row>
-    <row r="124" hidden="1">
+    <row r="124">
       <c r="A124" s="6" t="s">
         <v>298</v>
       </c>
@@ -13453,7 +13607,7 @@
       <c r="AL124" s="5"/>
       <c r="AM124" s="5"/>
     </row>
-    <row r="125" hidden="1">
+    <row r="125">
       <c r="A125" s="6" t="s">
         <v>300</v>
       </c>
@@ -13514,7 +13668,7 @@
       <c r="AL125" s="5"/>
       <c r="AM125" s="5"/>
     </row>
-    <row r="126" hidden="1">
+    <row r="126">
       <c r="A126" s="6" t="s">
         <v>302</v>
       </c>
@@ -13575,7 +13729,7 @@
       <c r="AL126" s="5"/>
       <c r="AM126" s="5"/>
     </row>
-    <row r="127" hidden="1">
+    <row r="127">
       <c r="A127" s="6" t="s">
         <v>304</v>
       </c>
@@ -13636,7 +13790,7 @@
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
     </row>
-    <row r="128" hidden="1">
+    <row r="128">
       <c r="A128" s="6" t="s">
         <v>306</v>
       </c>
@@ -13884,7 +14038,7 @@
       <c r="AL131" s="5"/>
       <c r="AM131" s="5"/>
     </row>
-    <row r="132" hidden="1">
+    <row r="132">
       <c r="A132" s="6" t="s">
         <v>316</v>
       </c>
@@ -14073,7 +14227,7 @@
       <c r="AL134" s="5"/>
       <c r="AM134" s="5"/>
     </row>
-    <row r="135" hidden="1">
+    <row r="135">
       <c r="A135" s="6" t="s">
         <v>323</v>
       </c>
@@ -14136,7 +14290,7 @@
       <c r="AL135" s="5"/>
       <c r="AM135" s="5"/>
     </row>
-    <row r="136" hidden="1">
+    <row r="136">
       <c r="A136" s="6" t="s">
         <v>325</v>
       </c>
@@ -14260,7 +14414,7 @@
       <c r="AL137" s="5"/>
       <c r="AM137" s="5"/>
     </row>
-    <row r="138" hidden="1">
+    <row r="138">
       <c r="A138" s="6" t="s">
         <v>330</v>
       </c>
@@ -14321,7 +14475,7 @@
       <c r="AL138" s="5"/>
       <c r="AM138" s="5"/>
     </row>
-    <row r="139" hidden="1">
+    <row r="139">
       <c r="A139" s="6" t="s">
         <v>332</v>
       </c>
@@ -14447,7 +14601,7 @@
       <c r="AL140" s="5"/>
       <c r="AM140" s="5"/>
     </row>
-    <row r="141" hidden="1">
+    <row r="141">
       <c r="A141" s="6" t="s">
         <v>337</v>
       </c>
@@ -14508,7 +14662,7 @@
       <c r="AL141" s="5"/>
       <c r="AM141" s="5"/>
     </row>
-    <row r="142" hidden="1">
+    <row r="142">
       <c r="A142" s="6" t="s">
         <v>339</v>
       </c>
@@ -14569,7 +14723,7 @@
       <c r="AL142" s="5"/>
       <c r="AM142" s="5"/>
     </row>
-    <row r="143" hidden="1">
+    <row r="143">
       <c r="A143" s="6" t="s">
         <v>341</v>
       </c>
@@ -14630,7 +14784,7 @@
       <c r="AL143" s="5"/>
       <c r="AM143" s="5"/>
     </row>
-    <row r="144" hidden="1">
+    <row r="144">
       <c r="A144" s="6" t="s">
         <v>343</v>
       </c>
@@ -14691,7 +14845,7 @@
       <c r="AL144" s="5"/>
       <c r="AM144" s="5"/>
     </row>
-    <row r="145" hidden="1">
+    <row r="145">
       <c r="A145" s="6" t="s">
         <v>345</v>
       </c>
@@ -14813,7 +14967,7 @@
       <c r="AL146" s="5"/>
       <c r="AM146" s="5"/>
     </row>
-    <row r="147" hidden="1">
+    <row r="147">
       <c r="A147" s="6" t="s">
         <v>350</v>
       </c>
@@ -14935,7 +15089,7 @@
       <c r="AL148" s="5"/>
       <c r="AM148" s="5"/>
     </row>
-    <row r="149" hidden="1">
+    <row r="149">
       <c r="A149" s="6" t="s">
         <v>355</v>
       </c>
@@ -14998,7 +15152,7 @@
       <c r="AL149" s="5"/>
       <c r="AM149" s="5"/>
     </row>
-    <row r="150" hidden="1">
+    <row r="150">
       <c r="A150" s="6" t="s">
         <v>357</v>
       </c>
@@ -15059,7 +15213,7 @@
       <c r="AL150" s="5"/>
       <c r="AM150" s="5"/>
     </row>
-    <row r="151" hidden="1">
+    <row r="151">
       <c r="A151" s="6" t="s">
         <v>359</v>
       </c>
@@ -15120,7 +15274,7 @@
       <c r="AL151" s="5"/>
       <c r="AM151" s="5"/>
     </row>
-    <row r="152" hidden="1">
+    <row r="152">
       <c r="A152" s="6" t="s">
         <v>361</v>
       </c>
@@ -15303,7 +15457,7 @@
       <c r="AL154" s="5"/>
       <c r="AM154" s="5"/>
     </row>
-    <row r="155" hidden="1">
+    <row r="155">
       <c r="A155" s="6" t="s">
         <v>369</v>
       </c>
@@ -15549,7 +15703,7 @@
       <c r="AL158" s="5"/>
       <c r="AM158" s="5"/>
     </row>
-    <row r="159" hidden="1">
+    <row r="159">
       <c r="A159" s="6" t="s">
         <v>380</v>
       </c>
@@ -15610,7 +15764,7 @@
       <c r="AL159" s="5"/>
       <c r="AM159" s="5"/>
     </row>
-    <row r="160" hidden="1">
+    <row r="160">
       <c r="A160" s="6" t="s">
         <v>382</v>
       </c>
@@ -15854,7 +16008,7 @@
       <c r="AL163" s="5"/>
       <c r="AM163" s="5"/>
     </row>
-    <row r="164" hidden="1">
+    <row r="164">
       <c r="A164" s="6" t="s">
         <v>392</v>
       </c>
@@ -15915,7 +16069,7 @@
       <c r="AL164" s="5"/>
       <c r="AM164" s="5"/>
     </row>
-    <row r="165" hidden="1">
+    <row r="165">
       <c r="A165" s="6" t="s">
         <v>394</v>
       </c>
@@ -15976,7 +16130,7 @@
       <c r="AL165" s="5"/>
       <c r="AM165" s="5"/>
     </row>
-    <row r="166" hidden="1">
+    <row r="166">
       <c r="A166" s="6" t="s">
         <v>396</v>
       </c>
@@ -16037,7 +16191,7 @@
       <c r="AL166" s="5"/>
       <c r="AM166" s="5"/>
     </row>
-    <row r="167" hidden="1">
+    <row r="167">
       <c r="A167" s="6" t="s">
         <v>398</v>
       </c>
@@ -16100,7 +16254,7 @@
       <c r="AL167" s="5"/>
       <c r="AM167" s="5"/>
     </row>
-    <row r="168" hidden="1">
+    <row r="168">
       <c r="A168" s="6" t="s">
         <v>400</v>
       </c>
@@ -16226,7 +16380,7 @@
       <c r="AL169" s="5"/>
       <c r="AM169" s="5"/>
     </row>
-    <row r="170" hidden="1">
+    <row r="170">
       <c r="A170" s="6" t="s">
         <v>405</v>
       </c>
@@ -16350,7 +16504,7 @@
       <c r="AL171" s="5"/>
       <c r="AM171" s="5"/>
     </row>
-    <row r="172" hidden="1">
+    <row r="172">
       <c r="A172" s="6" t="s">
         <v>410</v>
       </c>
@@ -16413,7 +16567,7 @@
       <c r="AL172" s="5"/>
       <c r="AM172" s="5"/>
     </row>
-    <row r="173" hidden="1">
+    <row r="173">
       <c r="A173" s="6" t="s">
         <v>412</v>
       </c>
@@ -16474,7 +16628,7 @@
       <c r="AL173" s="5"/>
       <c r="AM173" s="5"/>
     </row>
-    <row r="174" hidden="1">
+    <row r="174">
       <c r="A174" s="6" t="s">
         <v>414</v>
       </c>
@@ -16537,7 +16691,7 @@
       <c r="AL174" s="5"/>
       <c r="AM174" s="5"/>
     </row>
-    <row r="175" hidden="1">
+    <row r="175">
       <c r="A175" s="6" t="s">
         <v>416</v>
       </c>
@@ -16724,7 +16878,7 @@
       <c r="AL177" s="5"/>
       <c r="AM177" s="5"/>
     </row>
-    <row r="178" hidden="1">
+    <row r="178">
       <c r="A178" s="6" t="s">
         <v>423</v>
       </c>
@@ -16785,7 +16939,7 @@
       <c r="AL178" s="5"/>
       <c r="AM178" s="5"/>
     </row>
-    <row r="179" hidden="1">
+    <row r="179">
       <c r="A179" s="6" t="s">
         <v>425</v>
       </c>
@@ -16846,7 +17000,7 @@
       <c r="AL179" s="5"/>
       <c r="AM179" s="5"/>
     </row>
-    <row r="180" hidden="1">
+    <row r="180">
       <c r="A180" s="6" t="s">
         <v>427</v>
       </c>
@@ -16909,7 +17063,7 @@
       <c r="AL180" s="5"/>
       <c r="AM180" s="5"/>
     </row>
-    <row r="181" hidden="1">
+    <row r="181">
       <c r="A181" s="6" t="s">
         <v>429</v>
       </c>
@@ -17031,7 +17185,7 @@
       <c r="AL182" s="5"/>
       <c r="AM182" s="5"/>
     </row>
-    <row r="183" hidden="1">
+    <row r="183">
       <c r="A183" s="6" t="s">
         <v>434</v>
       </c>
@@ -17338,7 +17492,7 @@
       <c r="AL187" s="5"/>
       <c r="AM187" s="5"/>
     </row>
-    <row r="188" hidden="1">
+    <row r="188">
       <c r="A188" s="6" t="s">
         <v>447</v>
       </c>
@@ -17399,7 +17553,7 @@
       <c r="AL188" s="5"/>
       <c r="AM188" s="5"/>
     </row>
-    <row r="189" hidden="1">
+    <row r="189">
       <c r="A189" s="6" t="s">
         <v>451</v>
       </c>
@@ -17460,7 +17614,7 @@
       <c r="AL189" s="5"/>
       <c r="AM189" s="5"/>
     </row>
-    <row r="190" hidden="1">
+    <row r="190">
       <c r="A190" s="6" t="s">
         <v>453</v>
       </c>
@@ -17521,7 +17675,7 @@
       <c r="AL190" s="5"/>
       <c r="AM190" s="5"/>
     </row>
-    <row r="191" hidden="1">
+    <row r="191">
       <c r="A191" s="6" t="s">
         <v>455</v>
       </c>
@@ -17956,7 +18110,7 @@
       <c r="AL197" s="5"/>
       <c r="AM197" s="5"/>
     </row>
-    <row r="198" hidden="1">
+    <row r="198">
       <c r="A198" s="6" t="s">
         <v>472</v>
       </c>
@@ -18019,7 +18173,7 @@
       <c r="AL198" s="5"/>
       <c r="AM198" s="5"/>
     </row>
-    <row r="199" hidden="1">
+    <row r="199">
       <c r="A199" s="6" t="s">
         <v>474</v>
       </c>
@@ -18080,7 +18234,7 @@
       <c r="AL199" s="5"/>
       <c r="AM199" s="5"/>
     </row>
-    <row r="200" hidden="1">
+    <row r="200">
       <c r="A200" s="6" t="s">
         <v>476</v>
       </c>
@@ -18143,7 +18297,7 @@
       <c r="AL200" s="5"/>
       <c r="AM200" s="5"/>
     </row>
-    <row r="201" hidden="1">
+    <row r="201">
       <c r="A201" s="6" t="s">
         <v>478</v>
       </c>
@@ -18204,7 +18358,7 @@
       <c r="AL201" s="5"/>
       <c r="AM201" s="5"/>
     </row>
-    <row r="202" hidden="1">
+    <row r="202">
       <c r="A202" s="6" t="s">
         <v>480</v>
       </c>
@@ -18265,7 +18419,7 @@
       <c r="AL202" s="5"/>
       <c r="AM202" s="5"/>
     </row>
-    <row r="203" hidden="1">
+    <row r="203">
       <c r="A203" s="6" t="s">
         <v>482</v>
       </c>
@@ -18326,7 +18480,7 @@
       <c r="AL203" s="5"/>
       <c r="AM203" s="5"/>
     </row>
-    <row r="204" hidden="1">
+    <row r="204">
       <c r="A204" s="6" t="s">
         <v>484</v>
       </c>
@@ -18387,7 +18541,7 @@
       <c r="AL204" s="5"/>
       <c r="AM204" s="5"/>
     </row>
-    <row r="205" hidden="1">
+    <row r="205">
       <c r="A205" s="6" t="s">
         <v>486</v>
       </c>
@@ -18448,7 +18602,7 @@
       <c r="AL205" s="5"/>
       <c r="AM205" s="5"/>
     </row>
-    <row r="206" hidden="1">
+    <row r="206">
       <c r="A206" s="6" t="s">
         <v>488</v>
       </c>
@@ -18509,7 +18663,7 @@
       <c r="AL206" s="5"/>
       <c r="AM206" s="5"/>
     </row>
-    <row r="207" hidden="1">
+    <row r="207">
       <c r="A207" s="6" t="s">
         <v>490</v>
       </c>
@@ -18631,7 +18785,7 @@
       <c r="AL208" s="5"/>
       <c r="AM208" s="5"/>
     </row>
-    <row r="209" hidden="1">
+    <row r="209">
       <c r="A209" s="6" t="s">
         <v>495</v>
       </c>
@@ -18694,7 +18848,7 @@
       <c r="AL209" s="5"/>
       <c r="AM209" s="5"/>
     </row>
-    <row r="210" hidden="1">
+    <row r="210">
       <c r="A210" s="6" t="s">
         <v>497</v>
       </c>
@@ -18757,7 +18911,7 @@
       <c r="AL210" s="5"/>
       <c r="AM210" s="5"/>
     </row>
-    <row r="211" hidden="1">
+    <row r="211">
       <c r="A211" s="6" t="s">
         <v>499</v>
       </c>
@@ -18818,7 +18972,7 @@
       <c r="AL211" s="5"/>
       <c r="AM211" s="5"/>
     </row>
-    <row r="212" hidden="1">
+    <row r="212">
       <c r="A212" s="6" t="s">
         <v>501</v>
       </c>
@@ -18879,7 +19033,7 @@
       <c r="AL212" s="5"/>
       <c r="AM212" s="5"/>
     </row>
-    <row r="213" hidden="1">
+    <row r="213">
       <c r="A213" s="6" t="s">
         <v>503</v>
       </c>
@@ -18942,7 +19096,7 @@
       <c r="AL213" s="5"/>
       <c r="AM213" s="5"/>
     </row>
-    <row r="214" hidden="1">
+    <row r="214">
       <c r="A214" s="6" t="s">
         <v>505</v>
       </c>
@@ -19005,7 +19159,7 @@
       <c r="AL214" s="5"/>
       <c r="AM214" s="5"/>
     </row>
-    <row r="215" hidden="1">
+    <row r="215">
       <c r="A215" s="6" t="s">
         <v>508</v>
       </c>
@@ -19066,7 +19220,7 @@
       <c r="AL215" s="5"/>
       <c r="AM215" s="5"/>
     </row>
-    <row r="216" hidden="1">
+    <row r="216">
       <c r="A216" s="6" t="s">
         <v>510</v>
       </c>
@@ -19190,7 +19344,7 @@
       <c r="AL217" s="5"/>
       <c r="AM217" s="5"/>
     </row>
-    <row r="218" hidden="1">
+    <row r="218">
       <c r="A218" s="6" t="s">
         <v>514</v>
       </c>
@@ -19251,7 +19405,7 @@
       <c r="AL218" s="5"/>
       <c r="AM218" s="5"/>
     </row>
-    <row r="219" hidden="1">
+    <row r="219">
       <c r="A219" s="6" t="s">
         <v>516</v>
       </c>
@@ -19314,7 +19468,7 @@
       <c r="AL219" s="5"/>
       <c r="AM219" s="5"/>
     </row>
-    <row r="220" hidden="1">
+    <row r="220">
       <c r="A220" s="6" t="s">
         <v>518</v>
       </c>
@@ -19375,7 +19529,7 @@
       <c r="AL220" s="5"/>
       <c r="AM220" s="5"/>
     </row>
-    <row r="221" hidden="1">
+    <row r="221">
       <c r="A221" s="6" t="s">
         <v>522</v>
       </c>
@@ -19436,7 +19590,7 @@
       <c r="AL221" s="5"/>
       <c r="AM221" s="5"/>
     </row>
-    <row r="222" hidden="1">
+    <row r="222">
       <c r="A222" s="6" t="s">
         <v>524</v>
       </c>
@@ -19497,7 +19651,7 @@
       <c r="AL222" s="5"/>
       <c r="AM222" s="5"/>
     </row>
-    <row r="223" hidden="1">
+    <row r="223">
       <c r="A223" s="6" t="s">
         <v>526</v>
       </c>
@@ -19621,7 +19775,7 @@
       <c r="AL224" s="5"/>
       <c r="AM224" s="5"/>
     </row>
-    <row r="225" hidden="1">
+    <row r="225">
       <c r="A225" s="6" t="s">
         <v>530</v>
       </c>
@@ -19682,7 +19836,7 @@
       <c r="AL225" s="5"/>
       <c r="AM225" s="5"/>
     </row>
-    <row r="226" hidden="1">
+    <row r="226">
       <c r="A226" s="6" t="s">
         <v>532</v>
       </c>
@@ -19745,7 +19899,7 @@
       <c r="AL226" s="5"/>
       <c r="AM226" s="5"/>
     </row>
-    <row r="227" hidden="1">
+    <row r="227">
       <c r="A227" s="6" t="s">
         <v>534</v>
       </c>
@@ -19806,7 +19960,7 @@
       <c r="AL227" s="5"/>
       <c r="AM227" s="5"/>
     </row>
-    <row r="228" hidden="1">
+    <row r="228">
       <c r="A228" s="6" t="s">
         <v>536</v>
       </c>
@@ -19869,7 +20023,7 @@
       <c r="AL228" s="5"/>
       <c r="AM228" s="5"/>
     </row>
-    <row r="229" hidden="1">
+    <row r="229">
       <c r="A229" s="6" t="s">
         <v>539</v>
       </c>
@@ -19930,7 +20084,7 @@
       <c r="AL229" s="5"/>
       <c r="AM229" s="5"/>
     </row>
-    <row r="230" hidden="1">
+    <row r="230">
       <c r="A230" s="6" t="s">
         <v>541</v>
       </c>
@@ -19991,7 +20145,7 @@
       <c r="AL230" s="5"/>
       <c r="AM230" s="5"/>
     </row>
-    <row r="231" hidden="1">
+    <row r="231">
       <c r="A231" s="6" t="s">
         <v>543</v>
       </c>
@@ -20054,7 +20208,7 @@
       <c r="AL231" s="5"/>
       <c r="AM231" s="5"/>
     </row>
-    <row r="232" hidden="1">
+    <row r="232">
       <c r="A232" s="6" t="s">
         <v>545</v>
       </c>
@@ -20115,7 +20269,7 @@
       <c r="AL232" s="5"/>
       <c r="AM232" s="5"/>
     </row>
-    <row r="233" hidden="1">
+    <row r="233">
       <c r="A233" s="6" t="s">
         <v>547</v>
       </c>
@@ -20176,7 +20330,7 @@
       <c r="AL233" s="5"/>
       <c r="AM233" s="5"/>
     </row>
-    <row r="234" hidden="1">
+    <row r="234">
       <c r="A234" s="6" t="s">
         <v>549</v>
       </c>
@@ -20302,7 +20456,7 @@
       <c r="AL235" s="5"/>
       <c r="AM235" s="5"/>
     </row>
-    <row r="236" hidden="1">
+    <row r="236">
       <c r="A236" s="6" t="s">
         <v>554</v>
       </c>
@@ -20363,7 +20517,7 @@
       <c r="AL236" s="5"/>
       <c r="AM236" s="5"/>
     </row>
-    <row r="237" hidden="1">
+    <row r="237">
       <c r="A237" s="6" t="s">
         <v>556</v>
       </c>
@@ -20424,7 +20578,7 @@
       <c r="AL237" s="5"/>
       <c r="AM237" s="5"/>
     </row>
-    <row r="238" hidden="1">
+    <row r="238">
       <c r="A238" s="6" t="s">
         <v>558</v>
       </c>
@@ -20485,7 +20639,7 @@
       <c r="AL238" s="5"/>
       <c r="AM238" s="5"/>
     </row>
-    <row r="239" hidden="1">
+    <row r="239">
       <c r="A239" s="6" t="s">
         <v>560</v>
       </c>
@@ -20607,7 +20761,7 @@
       <c r="AL240" s="5"/>
       <c r="AM240" s="5"/>
     </row>
-    <row r="241" hidden="1">
+    <row r="241">
       <c r="A241" s="6" t="s">
         <v>565</v>
       </c>
@@ -20668,7 +20822,7 @@
       <c r="AL241" s="5"/>
       <c r="AM241" s="5"/>
     </row>
-    <row r="242" hidden="1">
+    <row r="242">
       <c r="A242" s="6" t="s">
         <v>567</v>
       </c>
@@ -20729,7 +20883,7 @@
       <c r="AL242" s="5"/>
       <c r="AM242" s="5"/>
     </row>
-    <row r="243" hidden="1">
+    <row r="243">
       <c r="A243" s="6" t="s">
         <v>569</v>
       </c>
@@ -20851,7 +21005,7 @@
       <c r="AL244" s="5"/>
       <c r="AM244" s="5"/>
     </row>
-    <row r="245" hidden="1">
+    <row r="245">
       <c r="A245" s="6" t="s">
         <v>574</v>
       </c>
@@ -20912,7 +21066,7 @@
       <c r="AL245" s="5"/>
       <c r="AM245" s="5"/>
     </row>
-    <row r="246" hidden="1">
+    <row r="246">
       <c r="A246" s="6" t="s">
         <v>577</v>
       </c>
@@ -20973,7 +21127,7 @@
       <c r="AL246" s="5"/>
       <c r="AM246" s="5"/>
     </row>
-    <row r="247" hidden="1">
+    <row r="247">
       <c r="A247" s="6" t="s">
         <v>579</v>
       </c>
@@ -21034,7 +21188,7 @@
       <c r="AL247" s="5"/>
       <c r="AM247" s="5"/>
     </row>
-    <row r="248" hidden="1">
+    <row r="248">
       <c r="A248" s="6" t="s">
         <v>581</v>
       </c>
@@ -21095,7 +21249,7 @@
       <c r="AL248" s="5"/>
       <c r="AM248" s="5"/>
     </row>
-    <row r="249" hidden="1">
+    <row r="249">
       <c r="A249" s="6" t="s">
         <v>583</v>
       </c>
@@ -21156,7 +21310,7 @@
       <c r="AL249" s="5"/>
       <c r="AM249" s="5"/>
     </row>
-    <row r="250" hidden="1">
+    <row r="250">
       <c r="A250" s="6" t="s">
         <v>585</v>
       </c>
@@ -21219,7 +21373,7 @@
       <c r="AL250" s="5"/>
       <c r="AM250" s="5"/>
     </row>
-    <row r="251" hidden="1">
+    <row r="251">
       <c r="A251" s="6" t="s">
         <v>587</v>
       </c>
@@ -21280,7 +21434,7 @@
       <c r="AL251" s="5"/>
       <c r="AM251" s="5"/>
     </row>
-    <row r="252" hidden="1">
+    <row r="252">
       <c r="A252" s="6" t="s">
         <v>589</v>
       </c>
@@ -21343,7 +21497,7 @@
       <c r="AL252" s="5"/>
       <c r="AM252" s="5"/>
     </row>
-    <row r="253" hidden="1">
+    <row r="253">
       <c r="A253" s="6" t="s">
         <v>591</v>
       </c>
@@ -21465,7 +21619,7 @@
       <c r="AL254" s="5"/>
       <c r="AM254" s="5"/>
     </row>
-    <row r="255" hidden="1">
+    <row r="255">
       <c r="A255" s="6" t="s">
         <v>595</v>
       </c>
@@ -21526,7 +21680,7 @@
       <c r="AL255" s="5"/>
       <c r="AM255" s="5"/>
     </row>
-    <row r="256" hidden="1">
+    <row r="256">
       <c r="A256" s="6" t="s">
         <v>597</v>
       </c>
@@ -21587,7 +21741,7 @@
       <c r="AL256" s="5"/>
       <c r="AM256" s="5"/>
     </row>
-    <row r="257" hidden="1">
+    <row r="257">
       <c r="A257" s="6" t="s">
         <v>599</v>
       </c>
@@ -21648,7 +21802,7 @@
       <c r="AL257" s="5"/>
       <c r="AM257" s="5"/>
     </row>
-    <row r="258" hidden="1">
+    <row r="258">
       <c r="A258" s="6" t="s">
         <v>601</v>
       </c>
@@ -21711,7 +21865,7 @@
       <c r="AL258" s="5"/>
       <c r="AM258" s="5"/>
     </row>
-    <row r="259" hidden="1">
+    <row r="259">
       <c r="A259" s="6" t="s">
         <v>603</v>
       </c>
@@ -21835,7 +21989,7 @@
       <c r="AL260" s="5"/>
       <c r="AM260" s="5"/>
     </row>
-    <row r="261" hidden="1">
+    <row r="261">
       <c r="A261" s="6" t="s">
         <v>608</v>
       </c>
@@ -21959,7 +22113,7 @@
       <c r="AL262" s="5"/>
       <c r="AM262" s="5"/>
     </row>
-    <row r="263" hidden="1">
+    <row r="263">
       <c r="A263" s="6" t="s">
         <v>613</v>
       </c>
@@ -22020,7 +22174,7 @@
       <c r="AL263" s="5"/>
       <c r="AM263" s="5"/>
     </row>
-    <row r="264" hidden="1">
+    <row r="264">
       <c r="A264" s="6" t="s">
         <v>615</v>
       </c>
@@ -22083,7 +22237,7 @@
       <c r="AL264" s="5"/>
       <c r="AM264" s="5"/>
     </row>
-    <row r="265" hidden="1">
+    <row r="265">
       <c r="A265" s="6" t="s">
         <v>617</v>
       </c>
@@ -22144,7 +22298,7 @@
       <c r="AL265" s="5"/>
       <c r="AM265" s="5"/>
     </row>
-    <row r="266" hidden="1">
+    <row r="266">
       <c r="A266" s="6" t="s">
         <v>619</v>
       </c>
@@ -22205,7 +22359,7 @@
       <c r="AL266" s="5"/>
       <c r="AM266" s="5"/>
     </row>
-    <row r="267" hidden="1">
+    <row r="267">
       <c r="A267" s="6" t="s">
         <v>621</v>
       </c>
@@ -22266,7 +22420,7 @@
       <c r="AL267" s="5"/>
       <c r="AM267" s="5"/>
     </row>
-    <row r="268" hidden="1">
+    <row r="268">
       <c r="A268" s="6" t="s">
         <v>623</v>
       </c>
@@ -22329,7 +22483,7 @@
       <c r="AL268" s="5"/>
       <c r="AM268" s="5"/>
     </row>
-    <row r="269" hidden="1">
+    <row r="269">
       <c r="A269" s="6" t="s">
         <v>625</v>
       </c>
@@ -22390,7 +22544,7 @@
       <c r="AL269" s="5"/>
       <c r="AM269" s="5"/>
     </row>
-    <row r="270" hidden="1">
+    <row r="270">
       <c r="A270" s="6" t="s">
         <v>627</v>
       </c>
@@ -22451,7 +22605,7 @@
       <c r="AL270" s="5"/>
       <c r="AM270" s="5"/>
     </row>
-    <row r="271" hidden="1">
+    <row r="271">
       <c r="A271" s="6" t="s">
         <v>629</v>
       </c>
@@ -22575,7 +22729,7 @@
       <c r="AL272" s="5"/>
       <c r="AM272" s="5"/>
     </row>
-    <row r="273" hidden="1">
+    <row r="273">
       <c r="A273" s="6" t="s">
         <v>633</v>
       </c>
@@ -22697,7 +22851,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" hidden="1">
+    <row r="275">
       <c r="A275" s="6" t="s">
         <v>638</v>
       </c>
@@ -22760,7 +22914,7 @@
       <c r="AL275" s="5"/>
       <c r="AM275" s="5"/>
     </row>
-    <row r="276" hidden="1">
+    <row r="276">
       <c r="A276" s="6" t="s">
         <v>641</v>
       </c>
@@ -22821,7 +22975,7 @@
       <c r="AL276" s="5"/>
       <c r="AM276" s="5"/>
     </row>
-    <row r="277" hidden="1">
+    <row r="277">
       <c r="A277" s="6" t="s">
         <v>643</v>
       </c>
@@ -22945,7 +23099,7 @@
       <c r="AL278" s="5"/>
       <c r="AM278" s="5"/>
     </row>
-    <row r="279" hidden="1">
+    <row r="279">
       <c r="A279" s="6" t="s">
         <v>647</v>
       </c>
@@ -23067,7 +23221,7 @@
       <c r="AL280" s="5"/>
       <c r="AM280" s="5"/>
     </row>
-    <row r="281" hidden="1">
+    <row r="281">
       <c r="A281" s="6" t="s">
         <v>651</v>
       </c>
@@ -23128,7 +23282,7 @@
       <c r="AL281" s="5"/>
       <c r="AM281" s="5"/>
     </row>
-    <row r="282" hidden="1">
+    <row r="282">
       <c r="A282" s="6" t="s">
         <v>653</v>
       </c>
@@ -23189,7 +23343,7 @@
       <c r="AL282" s="5"/>
       <c r="AM282" s="5"/>
     </row>
-    <row r="283" hidden="1">
+    <row r="283">
       <c r="A283" s="6" t="s">
         <v>655</v>
       </c>
@@ -23250,7 +23404,7 @@
       <c r="AL283" s="5"/>
       <c r="AM283" s="5"/>
     </row>
-    <row r="284" hidden="1">
+    <row r="284">
       <c r="A284" s="12" t="s">
         <v>657</v>
       </c>
@@ -23372,7 +23526,7 @@
       <c r="AL285" s="5"/>
       <c r="AM285" s="5"/>
     </row>
-    <row r="286" hidden="1">
+    <row r="286">
       <c r="A286" s="12" t="s">
         <v>661</v>
       </c>
@@ -23435,7 +23589,7 @@
       <c r="AL286" s="5"/>
       <c r="AM286" s="5"/>
     </row>
-    <row r="287" hidden="1">
+    <row r="287">
       <c r="A287" s="12" t="s">
         <v>663</v>
       </c>
@@ -23496,7 +23650,7 @@
       <c r="AL287" s="5"/>
       <c r="AM287" s="5"/>
     </row>
-    <row r="288" hidden="1">
+    <row r="288">
       <c r="A288" s="12" t="s">
         <v>665</v>
       </c>
@@ -23618,7 +23772,7 @@
       <c r="AL289" s="5"/>
       <c r="AM289" s="5"/>
     </row>
-    <row r="290" hidden="1">
+    <row r="290">
       <c r="A290" s="12" t="s">
         <v>670</v>
       </c>
@@ -23679,7 +23833,7 @@
       <c r="AL290" s="5"/>
       <c r="AM290" s="5"/>
     </row>
-    <row r="291" hidden="1">
+    <row r="291">
       <c r="A291" s="12" t="s">
         <v>672</v>
       </c>
@@ -23740,7 +23894,7 @@
       <c r="AL291" s="5"/>
       <c r="AM291" s="5"/>
     </row>
-    <row r="292" hidden="1">
+    <row r="292">
       <c r="A292" s="12" t="s">
         <v>674</v>
       </c>
@@ -23801,7 +23955,7 @@
       <c r="AL292" s="5"/>
       <c r="AM292" s="5"/>
     </row>
-    <row r="293" hidden="1">
+    <row r="293">
       <c r="A293" s="12" t="s">
         <v>676</v>
       </c>
@@ -23862,7 +24016,7 @@
       <c r="AL293" s="5"/>
       <c r="AM293" s="5"/>
     </row>
-    <row r="294" hidden="1">
+    <row r="294">
       <c r="A294" s="12" t="s">
         <v>678</v>
       </c>
@@ -23923,7 +24077,7 @@
       <c r="AL294" s="5"/>
       <c r="AM294" s="5"/>
     </row>
-    <row r="295" hidden="1">
+    <row r="295">
       <c r="A295" s="12" t="s">
         <v>680</v>
       </c>
@@ -23984,7 +24138,7 @@
       <c r="AL295" s="5"/>
       <c r="AM295" s="5"/>
     </row>
-    <row r="296" hidden="1">
+    <row r="296">
       <c r="A296" s="12" t="s">
         <v>682</v>
       </c>
@@ -24045,7 +24199,7 @@
       <c r="AL296" s="5"/>
       <c r="AM296" s="5"/>
     </row>
-    <row r="297" hidden="1">
+    <row r="297">
       <c r="A297" s="12" t="s">
         <v>684</v>
       </c>
@@ -24106,7 +24260,7 @@
       <c r="AL297" s="5"/>
       <c r="AM297" s="5"/>
     </row>
-    <row r="298" hidden="1">
+    <row r="298">
       <c r="A298" s="12" t="s">
         <v>686</v>
       </c>
@@ -24167,7 +24321,7 @@
       <c r="AL298" s="5"/>
       <c r="AM298" s="5"/>
     </row>
-    <row r="299" hidden="1">
+    <row r="299">
       <c r="A299" s="12" t="s">
         <v>688</v>
       </c>
@@ -24291,7 +24445,7 @@
       <c r="AL300" s="5"/>
       <c r="AM300" s="5"/>
     </row>
-    <row r="301" hidden="1">
+    <row r="301">
       <c r="A301" s="12" t="s">
         <v>693</v>
       </c>
@@ -24352,7 +24506,7 @@
       <c r="AL301" s="5"/>
       <c r="AM301" s="5"/>
     </row>
-    <row r="302" hidden="1">
+    <row r="302">
       <c r="A302" s="12" t="s">
         <v>695</v>
       </c>
@@ -24539,7 +24693,7 @@
       <c r="AL304" s="5"/>
       <c r="AM304" s="5"/>
     </row>
-    <row r="305" hidden="1">
+    <row r="305">
       <c r="A305" s="12" t="s">
         <v>702</v>
       </c>
@@ -24600,7 +24754,7 @@
       <c r="AL305" s="5"/>
       <c r="AM305" s="5"/>
     </row>
-    <row r="306" hidden="1">
+    <row r="306">
       <c r="A306" s="6" t="s">
         <v>704</v>
       </c>
@@ -24661,7 +24815,7 @@
       <c r="AL306" s="5"/>
       <c r="AM306" s="5"/>
     </row>
-    <row r="307" hidden="1">
+    <row r="307">
       <c r="A307" s="6" t="s">
         <v>708</v>
       </c>
@@ -24722,7 +24876,7 @@
       <c r="AL307" s="5"/>
       <c r="AM307" s="5"/>
     </row>
-    <row r="308" hidden="1">
+    <row r="308">
       <c r="A308" s="6" t="s">
         <v>710</v>
       </c>
@@ -24783,7 +24937,7 @@
       <c r="AL308" s="5"/>
       <c r="AM308" s="5"/>
     </row>
-    <row r="309" hidden="1">
+    <row r="309">
       <c r="A309" s="6" t="s">
         <v>712</v>
       </c>
@@ -24844,7 +24998,7 @@
       <c r="AL309" s="5"/>
       <c r="AM309" s="5"/>
     </row>
-    <row r="310" hidden="1">
+    <row r="310">
       <c r="A310" s="6" t="s">
         <v>713</v>
       </c>
@@ -24907,7 +25061,7 @@
       <c r="AL310" s="5"/>
       <c r="AM310" s="5"/>
     </row>
-    <row r="311" hidden="1">
+    <row r="311">
       <c r="A311" s="6" t="s">
         <v>715</v>
       </c>
@@ -24968,7 +25122,7 @@
       <c r="AL311" s="5"/>
       <c r="AM311" s="5"/>
     </row>
-    <row r="312" hidden="1">
+    <row r="312">
       <c r="A312" s="6" t="s">
         <v>717</v>
       </c>
@@ -25031,7 +25185,7 @@
       <c r="AL312" s="5"/>
       <c r="AM312" s="5"/>
     </row>
-    <row r="313" hidden="1">
+    <row r="313">
       <c r="A313" s="6" t="s">
         <v>719</v>
       </c>
@@ -25094,7 +25248,7 @@
       <c r="AL313" s="5"/>
       <c r="AM313" s="5"/>
     </row>
-    <row r="314" hidden="1">
+    <row r="314">
       <c r="A314" s="6" t="s">
         <v>721</v>
       </c>
@@ -25155,7 +25309,7 @@
       <c r="AL314" s="5"/>
       <c r="AM314" s="5"/>
     </row>
-    <row r="315" hidden="1">
+    <row r="315">
       <c r="A315" s="12" t="s">
         <v>723</v>
       </c>
@@ -25342,7 +25496,7 @@
       <c r="AL317" s="5"/>
       <c r="AM317" s="5"/>
     </row>
-    <row r="318" hidden="1">
+    <row r="318">
       <c r="A318" s="12" t="s">
         <v>729</v>
       </c>
@@ -25403,7 +25557,7 @@
       <c r="AL318" s="5"/>
       <c r="AM318" s="5"/>
     </row>
-    <row r="319" hidden="1">
+    <row r="319">
       <c r="A319" s="12" t="s">
         <v>731</v>
       </c>
@@ -25464,7 +25618,7 @@
       <c r="AL319" s="5"/>
       <c r="AM319" s="5"/>
     </row>
-    <row r="320" hidden="1">
+    <row r="320">
       <c r="A320" s="12" t="s">
         <v>733</v>
       </c>
@@ -25527,7 +25681,7 @@
       <c r="AL320" s="5"/>
       <c r="AM320" s="5"/>
     </row>
-    <row r="321" hidden="1">
+    <row r="321">
       <c r="A321" s="12" t="s">
         <v>735</v>
       </c>
@@ -25588,7 +25742,7 @@
       <c r="AL321" s="5"/>
       <c r="AM321" s="5"/>
     </row>
-    <row r="322" hidden="1">
+    <row r="322">
       <c r="A322" s="12" t="s">
         <v>737</v>
       </c>
@@ -25651,7 +25805,7 @@
       <c r="AL322" s="5"/>
       <c r="AM322" s="5"/>
     </row>
-    <row r="323" hidden="1">
+    <row r="323">
       <c r="A323" s="12" t="s">
         <v>739</v>
       </c>
@@ -25712,7 +25866,7 @@
       <c r="AL323" s="5"/>
       <c r="AM323" s="5"/>
     </row>
-    <row r="324" hidden="1">
+    <row r="324">
       <c r="A324" s="12" t="s">
         <v>741</v>
       </c>
@@ -25773,7 +25927,7 @@
       <c r="AL324" s="5"/>
       <c r="AM324" s="5"/>
     </row>
-    <row r="325" hidden="1">
+    <row r="325">
       <c r="A325" s="12" t="s">
         <v>743</v>
       </c>
@@ -25836,7 +25990,7 @@
       <c r="AL325" s="5"/>
       <c r="AM325" s="5"/>
     </row>
-    <row r="326" hidden="1">
+    <row r="326">
       <c r="A326" s="12" t="s">
         <v>745</v>
       </c>
@@ -25897,7 +26051,7 @@
       <c r="AL326" s="5"/>
       <c r="AM326" s="5"/>
     </row>
-    <row r="327" hidden="1">
+    <row r="327">
       <c r="A327" s="12" t="s">
         <v>747</v>
       </c>
@@ -25958,7 +26112,7 @@
       <c r="AL327" s="5"/>
       <c r="AM327" s="5"/>
     </row>
-    <row r="328" hidden="1">
+    <row r="328">
       <c r="A328" s="12" t="s">
         <v>749</v>
       </c>
@@ -26019,7 +26173,7 @@
       <c r="AL328" s="5"/>
       <c r="AM328" s="5"/>
     </row>
-    <row r="329" hidden="1">
+    <row r="329">
       <c r="A329" s="12" t="s">
         <v>751</v>
       </c>
@@ -26080,7 +26234,7 @@
       <c r="AL329" s="5"/>
       <c r="AM329" s="5"/>
     </row>
-    <row r="330" hidden="1">
+    <row r="330">
       <c r="A330" s="12" t="s">
         <v>753</v>
       </c>
@@ -26141,7 +26295,7 @@
       <c r="AL330" s="5"/>
       <c r="AM330" s="5"/>
     </row>
-    <row r="331" hidden="1">
+    <row r="331">
       <c r="A331" s="12" t="s">
         <v>755</v>
       </c>
@@ -26204,7 +26358,7 @@
       <c r="AL331" s="5"/>
       <c r="AM331" s="5"/>
     </row>
-    <row r="332" hidden="1">
+    <row r="332">
       <c r="A332" s="12" t="s">
         <v>757</v>
       </c>
@@ -26267,7 +26421,7 @@
       <c r="AL332" s="5"/>
       <c r="AM332" s="5"/>
     </row>
-    <row r="333" hidden="1">
+    <row r="333">
       <c r="A333" s="12" t="s">
         <v>759</v>
       </c>
@@ -26328,7 +26482,7 @@
       <c r="AL333" s="5"/>
       <c r="AM333" s="5"/>
     </row>
-    <row r="334" hidden="1">
+    <row r="334">
       <c r="A334" s="12" t="s">
         <v>761</v>
       </c>
@@ -26391,7 +26545,7 @@
       <c r="AL334" s="5"/>
       <c r="AM334" s="5"/>
     </row>
-    <row r="335" hidden="1">
+    <row r="335">
       <c r="A335" s="12" t="s">
         <v>763</v>
       </c>
@@ -26452,7 +26606,7 @@
       <c r="AL335" s="5"/>
       <c r="AM335" s="5"/>
     </row>
-    <row r="336" hidden="1">
+    <row r="336">
       <c r="A336" s="6" t="s">
         <v>765</v>
       </c>
@@ -26513,7 +26667,7 @@
       <c r="AL336" s="5"/>
       <c r="AM336" s="5"/>
     </row>
-    <row r="337" hidden="1">
+    <row r="337">
       <c r="A337" s="6" t="s">
         <v>768</v>
       </c>
@@ -26574,7 +26728,7 @@
       <c r="AL337" s="5"/>
       <c r="AM337" s="5"/>
     </row>
-    <row r="338" hidden="1">
+    <row r="338">
       <c r="A338" s="6" t="s">
         <v>770</v>
       </c>
@@ -26635,7 +26789,7 @@
       <c r="AL338" s="5"/>
       <c r="AM338" s="5"/>
     </row>
-    <row r="339" hidden="1">
+    <row r="339">
       <c r="A339" s="6" t="s">
         <v>772</v>
       </c>
@@ -26698,7 +26852,7 @@
       <c r="AL339" s="5"/>
       <c r="AM339" s="5"/>
     </row>
-    <row r="340" hidden="1">
+    <row r="340">
       <c r="A340" s="6" t="s">
         <v>774</v>
       </c>
@@ -26761,7 +26915,7 @@
       <c r="AL340" s="5"/>
       <c r="AM340" s="5"/>
     </row>
-    <row r="341" hidden="1">
+    <row r="341">
       <c r="A341" s="6" t="s">
         <v>776</v>
       </c>
@@ -26822,7 +26976,7 @@
       <c r="AL341" s="5"/>
       <c r="AM341" s="5"/>
     </row>
-    <row r="342" hidden="1">
+    <row r="342">
       <c r="A342" s="6" t="s">
         <v>778</v>
       </c>
@@ -26883,7 +27037,7 @@
       <c r="AL342" s="5"/>
       <c r="AM342" s="5"/>
     </row>
-    <row r="343" hidden="1">
+    <row r="343">
       <c r="A343" s="6" t="s">
         <v>780</v>
       </c>
@@ -26944,7 +27098,7 @@
       <c r="AL343" s="5"/>
       <c r="AM343" s="5"/>
     </row>
-    <row r="344" hidden="1">
+    <row r="344">
       <c r="A344" s="6" t="s">
         <v>782</v>
       </c>
@@ -27005,7 +27159,7 @@
       <c r="AL344" s="5"/>
       <c r="AM344" s="5"/>
     </row>
-    <row r="345" hidden="1">
+    <row r="345">
       <c r="A345" s="12" t="s">
         <v>784</v>
       </c>
@@ -27068,7 +27222,7 @@
       <c r="AL345" s="5"/>
       <c r="AM345" s="5"/>
     </row>
-    <row r="346" hidden="1">
+    <row r="346">
       <c r="A346" s="12" t="s">
         <v>786</v>
       </c>
@@ -27131,7 +27285,7 @@
       <c r="AL346" s="5"/>
       <c r="AM346" s="5"/>
     </row>
-    <row r="347" hidden="1">
+    <row r="347">
       <c r="A347" s="12" t="s">
         <v>788</v>
       </c>
@@ -27192,7 +27346,7 @@
       <c r="AL347" s="5"/>
       <c r="AM347" s="5"/>
     </row>
-    <row r="348" hidden="1">
+    <row r="348">
       <c r="A348" s="12" t="s">
         <v>790</v>
       </c>
@@ -27255,7 +27409,7 @@
       <c r="AL348" s="5"/>
       <c r="AM348" s="5"/>
     </row>
-    <row r="349" hidden="1">
+    <row r="349">
       <c r="A349" s="12" t="s">
         <v>792</v>
       </c>
@@ -27318,7 +27472,7 @@
       <c r="AL349" s="5"/>
       <c r="AM349" s="5"/>
     </row>
-    <row r="350" hidden="1">
+    <row r="350">
       <c r="A350" s="12" t="s">
         <v>794</v>
       </c>
@@ -27381,7 +27535,7 @@
       <c r="AL350" s="5"/>
       <c r="AM350" s="5"/>
     </row>
-    <row r="351" hidden="1">
+    <row r="351">
       <c r="A351" s="12" t="s">
         <v>796</v>
       </c>
@@ -27442,7 +27596,7 @@
       <c r="AL351" s="5"/>
       <c r="AM351" s="5"/>
     </row>
-    <row r="352" hidden="1">
+    <row r="352">
       <c r="A352" s="12" t="s">
         <v>798</v>
       </c>
@@ -27505,7 +27659,7 @@
       <c r="AL352" s="5"/>
       <c r="AM352" s="5"/>
     </row>
-    <row r="353" hidden="1">
+    <row r="353">
       <c r="A353" s="12" t="s">
         <v>800</v>
       </c>
@@ -27568,7 +27722,7 @@
       <c r="AL353" s="5"/>
       <c r="AM353" s="5"/>
     </row>
-    <row r="354" hidden="1">
+    <row r="354">
       <c r="A354" s="12" t="s">
         <v>802</v>
       </c>
@@ -27692,7 +27846,7 @@
       <c r="AL355" s="5"/>
       <c r="AM355" s="5"/>
     </row>
-    <row r="356" hidden="1">
+    <row r="356">
       <c r="A356" s="12" t="s">
         <v>806</v>
       </c>
@@ -27753,7 +27907,7 @@
       <c r="AL356" s="5"/>
       <c r="AM356" s="5"/>
     </row>
-    <row r="357" hidden="1">
+    <row r="357">
       <c r="A357" s="12" t="s">
         <v>808</v>
       </c>
@@ -27814,7 +27968,7 @@
       <c r="AL357" s="5"/>
       <c r="AM357" s="5"/>
     </row>
-    <row r="358" hidden="1">
+    <row r="358">
       <c r="A358" s="12" t="s">
         <v>810</v>
       </c>
@@ -27875,7 +28029,7 @@
       <c r="AL358" s="5"/>
       <c r="AM358" s="5"/>
     </row>
-    <row r="359" hidden="1">
+    <row r="359">
       <c r="A359" s="12" t="s">
         <v>812</v>
       </c>
@@ -27936,7 +28090,7 @@
       <c r="AL359" s="5"/>
       <c r="AM359" s="5"/>
     </row>
-    <row r="360" hidden="1">
+    <row r="360">
       <c r="A360" s="12" t="s">
         <v>814</v>
       </c>
@@ -27997,7 +28151,7 @@
       <c r="AL360" s="5"/>
       <c r="AM360" s="5"/>
     </row>
-    <row r="361" hidden="1">
+    <row r="361">
       <c r="A361" s="12" t="s">
         <v>816</v>
       </c>
@@ -28058,7 +28212,7 @@
       <c r="AL361" s="5"/>
       <c r="AM361" s="5"/>
     </row>
-    <row r="362" hidden="1">
+    <row r="362">
       <c r="A362" s="12" t="s">
         <v>818</v>
       </c>
@@ -28182,7 +28336,7 @@
       <c r="AL363" s="5"/>
       <c r="AM363" s="5"/>
     </row>
-    <row r="364" hidden="1">
+    <row r="364">
       <c r="A364" s="12" t="s">
         <v>822</v>
       </c>
@@ -28245,7 +28399,7 @@
       <c r="AL364" s="5"/>
       <c r="AM364" s="5"/>
     </row>
-    <row r="365" hidden="1">
+    <row r="365">
       <c r="A365" s="12" t="s">
         <v>824</v>
       </c>
@@ -28306,7 +28460,7 @@
       <c r="AL365" s="5"/>
       <c r="AM365" s="5"/>
     </row>
-    <row r="366" hidden="1">
+    <row r="366">
       <c r="A366" s="12" t="s">
         <v>826</v>
       </c>
@@ -54364,47 +54518,6 @@
       <c r="AM1000" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AG$366">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Franklin"/>
-        <filter val="Pemaquid Point"/>
-        <filter val="Prospect, West Gouldsboro"/>
-        <filter val="Stave Island"/>
-        <filter val="Rockland"/>
-        <filter val="Schoodic pond"/>
-        <filter val="Prospect Harbot"/>
-        <filter val="Lower Harbor"/>
-        <filter val="East Sullivan, Stave Island"/>
-        <filter val="New Castle"/>
-        <filter val="Iron Bound"/>
-        <filter val="Prospect Harbor, Rockland, Cranberry IIsles"/>
-        <filter val="Ellsworth"/>
-        <filter val="Cranberry Isles"/>
-        <filter val="Matinicus Rock"/>
-        <filter val="West Gouldsboro"/>
-        <filter val="Salem"/>
-        <filter val="Boston"/>
-        <filter val="Winter Harbor"/>
-        <filter val="East Sullivan"/>
-        <filter val="Stave Island, Sullivan"/>
-        <filter val="Fox Island"/>
-        <filter val="Iron bound"/>
-        <filter val="Cranberry Isle, Sutton Islands, Deer Isle"/>
-        <filter val="Bar Harbor"/>
-        <filter val="Jordan Island"/>
-        <filter val="Bass Harbor"/>
-        <filter val="Bass Harbor, Fox Island"/>
-        <filter val="Schoodic"/>
-        <filter val="Sullivan"/>
-        <filter val="Thachers Island"/>
-        <filter val="Ellsworth, Cranberry Isles"/>
-        <filter val="Sullivan, Owls Head, Rockland, Fox Islands"/>
-        <filter val="Fox Island, Deer Isle"/>
-        <filter val="Prospect"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E615">
       <formula1>"mentioned,assumed"</formula1>
@@ -54428,6 +54541,7 @@
       <formula1>"write,read,read and write,no letter"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>